--- a/Mifos Automation Excels/Loan Product/918-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/918-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>productname</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Overdue/Due Fee/Int,Principal</t>
+  </si>
+  <si>
+    <t>allowPartialPeriodInterestCalcualtion</t>
   </si>
 </sst>
 </file>
@@ -620,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -780,201 +783,209 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="13">
-        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B28" s="14">
         <v>42005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B30" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B31" s="11">
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B44" s="12" t="s">
         <v>58</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Loan Product/918-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/918-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -197,12 +197,6 @@
     <t>Overpayment Liability</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Dollar </t>
-  </si>
-  <si>
     <t>Equal principal payments</t>
   </si>
   <si>
@@ -228,6 +222,12 @@
   </si>
   <si>
     <t>maximumallowedoutstandingbalancefortranchloan</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
   </si>
 </sst>
 </file>
@@ -292,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -310,7 +310,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -623,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -638,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -658,7 +657,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7">
@@ -674,20 +673,20 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>61</v>
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -752,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -776,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -816,7 +815,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -837,17 +836,17 @@
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="14">
+        <v>61</v>
+      </c>
+      <c r="B26" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="15">
+        <v>62</v>
+      </c>
+      <c r="B27" s="14">
         <v>42005</v>
       </c>
     </row>
@@ -868,8 +867,8 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>70</v>
+      <c r="A30" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="B30" s="11">
         <v>10000</v>
@@ -877,7 +876,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>8</v>
@@ -1000,11 +999,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>68</v>
+      <c r="A1" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/918-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/918-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -68,9 +68,6 @@
     <t>repaymentstrategy</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>interestcalculationperiod</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>US Dollar</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -653,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -683,10 +683,10 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -707,7 +707,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
         <v>12</v>
@@ -743,7 +743,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -751,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -767,36 +767,36 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>8</v>
@@ -804,39 +804,39 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="13">
         <v>1</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="14">
         <v>42005</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="5">
         <v>1</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="11">
         <v>10000</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>8</v>
@@ -884,98 +884,98 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1000,10 +1000,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
